--- a/Burndown Chart final.xlsx
+++ b/Burndown Chart final.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23507"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71838058-8DC8-47ED-B449-AFC2B4CB6D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB626D3-B6BD-4AE3-9B3C-9C11B8D5145F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +106,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -204,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -213,6 +238,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1512,7 +1541,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:J18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1557,19 +1586,19 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
         <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="8">
         <v>3</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
       <c r="I3" s="1">
@@ -1595,13 +1624,13 @@
       <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="8">
         <v>5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="8">
         <v>2</v>
       </c>
       <c r="J4" s="1">
@@ -1624,13 +1653,13 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="8">
         <v>2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="8">
         <v>1</v>
       </c>
       <c r="J5" s="1">
@@ -1647,10 +1676,10 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -1673,19 +1702,19 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="8">
         <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="8">
         <v>2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="8">
         <v>1</v>
       </c>
       <c r="I7" s="1">
@@ -1714,10 +1743,10 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="8">
         <v>2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="8">
         <v>1</v>
       </c>
       <c r="J8" s="1">
@@ -1740,13 +1769,13 @@
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="8">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="8">
         <v>4</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="8">
         <v>2</v>
       </c>
       <c r="J9" s="1">
@@ -1763,16 +1792,16 @@
       <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
         <v>6</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="8">
         <v>4</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="8">
         <v>3</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="1">
@@ -1795,16 +1824,16 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <v>5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="8">
         <v>2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="10">
         <v>1</v>
       </c>
       <c r="J11" s="1">
@@ -1818,22 +1847,22 @@
       <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="8">
         <v>5</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="8">
         <v>3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="8">
         <v>2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="8">
         <v>1</v>
       </c>
       <c r="J12" s="1">
@@ -1847,25 +1876,25 @@
       <c r="C13" s="1">
         <v>10</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="8">
         <v>6</v>
       </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="8">
         <v>6</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="8">
         <v>3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="8">
         <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="11">
         <v>1</v>
       </c>
     </row>
